--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/PENNSYLVANIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/PENNSYLVANIA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D963"/>
+  <dimension ref="A1:D956"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C25">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C62">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C65">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C71">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C95">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C100">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C106">
@@ -1964,7 +1964,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C133">
@@ -2161,12 +2161,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C135">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C139">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C144">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C150">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C159">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C165">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C173">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C181">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C183">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C191">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C198">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C203">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C206">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C217">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C223">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C227">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C235">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C239">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C241">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C244">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C254">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C257">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C260">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C264">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C269">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C273">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C282">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C301">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C305">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C310">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C318">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C322">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C324">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C331">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C332">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C335">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C337">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C343">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C350">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C354">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C362">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C366">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C369">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C370">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C375">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C379">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C381">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6169,7 +6169,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C441">
@@ -6382,7 +6382,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C457">
@@ -6525,7 +6525,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C468">
@@ -6551,7 +6551,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C470">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C490">
@@ -6865,7 +6865,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C493">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C496">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C499">
@@ -6956,7 +6956,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C500">
@@ -6969,7 +6969,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C501">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C502">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C506">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C508">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C510">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C511">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C512">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C524">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C528">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C531">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C533">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C553">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C558">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C562">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C590">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C599">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C601">
@@ -8638,7 +8638,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C629">
@@ -8664,7 +8664,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C631">
@@ -8677,7 +8677,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C632">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C645">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C646">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C649">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C651">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C654">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C662">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C671">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C688">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C692">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C693">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C696">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C703">
@@ -9678,7 +9678,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C709">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C711">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C712">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C716">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C725">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C731">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C741">
@@ -10112,7 +10112,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C742">
@@ -10177,7 +10177,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C747">
@@ -10203,7 +10203,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C749">
@@ -10242,7 +10242,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C752">
@@ -10395,7 +10395,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C763">
@@ -10499,7 +10499,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C771">
@@ -10577,7 +10577,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C777">
@@ -10629,7 +10629,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C781">
@@ -10917,7 +10917,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C802">
@@ -11052,7 +11052,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C812">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C816">
@@ -11265,7 +11265,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C828">
@@ -11291,7 +11291,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C830">
@@ -11369,7 +11369,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C836">
@@ -11499,7 +11499,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -11608,7 +11608,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C854">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C863">
@@ -11881,7 +11881,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C875">
@@ -11894,7 +11894,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C876">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C879">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C885">
@@ -12037,7 +12037,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C887">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C893">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C903">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C908">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C910">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C932">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C939">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C956">
@@ -12952,41 +12952,6 @@
       </c>
       <c r="D956">
         <v>1</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
